--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="1759">
   <si>
     <t>战斗</t>
   </si>
@@ -5153,6 +5153,9 @@
     <t>BOSS</t>
   </si>
   <si>
+    <t>BOSS羁绊</t>
+  </si>
+  <si>
     <t>限定势力</t>
   </si>
   <si>
@@ -5297,10 +5300,10 @@
     <t>严颜、张任（刺甲）</t>
   </si>
   <si>
-    <t>抛石台、箭塔、拒马、地雷、迷雾阵</t>
-  </si>
-  <si>
-    <t>争夺汉中</t>
+    <t>抛石台、箭塔</t>
+  </si>
+  <si>
+    <t>曹操、五谋</t>
   </si>
   <si>
     <t>魏五奇谋</t>
@@ -5309,7 +5312,7 @@
     <t>铸铁炉、四方鼎</t>
   </si>
   <si>
-    <t>智取定军山</t>
+    <t>刘备、五虎</t>
   </si>
   <si>
     <t>五虎上将</t>
@@ -5377,8 +5380,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -5438,14 +5441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -5468,6 +5463,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -5475,8 +5485,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5487,45 +5514,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5545,24 +5533,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5575,19 +5562,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5698,7 +5701,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5710,31 +5845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5746,139 +5875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6002,25 +6005,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6041,6 +6031,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6052,6 +6051,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6070,35 +6102,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6107,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6119,133 +6122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11241,7 +11244,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>70485</xdr:colOff>
+      <xdr:colOff>64135</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -14859,7 +14862,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>VLOOKUP(B4,武将!$A:$H,7,FALSE)</f>
@@ -14933,7 +14936,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,武将!$A:$B,2,FALSE)</f>
@@ -14978,7 +14981,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B8" s="23">
         <v>477</v>
@@ -16009,7 +16012,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -16117,7 +16120,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -16159,7 +16162,7 @@
         <v>8</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -16197,7 +16200,7 @@
         <v>9</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -56070,7 +56073,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="B17:F21"/>
+      <selection activeCell="B1" sqref="B1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -56078,7 +56081,7 @@
     <col min="1" max="1" width="20.3333333333333" style="64" customWidth="1"/>
     <col min="2" max="2" width="9" style="64"/>
     <col min="3" max="3" width="13" style="64" customWidth="1"/>
-    <col min="4" max="4" width="19.1296296296296" style="64" customWidth="1"/>
+    <col min="4" max="4" width="19.2222222222222" style="64" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="64" customWidth="1"/>
     <col min="6" max="6" width="19" style="64" customWidth="1"/>
     <col min="7" max="7" width="31.75" style="64" customWidth="1"/>
@@ -56095,18 +56098,20 @@
       <c r="D1" s="65" t="s">
         <v>1684</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="65" t="s">
+        <v>1685</v>
+      </c>
       <c r="F1" s="65" t="s">
         <v>336</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>50</v>
@@ -56117,7 +56122,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>504</v>
@@ -56126,16 +56131,16 @@
         <v>505</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2" s="64" t="s">
         <v>374</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -56143,7 +56148,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>404</v>
@@ -56152,7 +56157,7 @@
         <v>381</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>374</v>
@@ -56166,36 +56171,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>398</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="68" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B5" s="64">
         <v>4</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>412</v>
@@ -56204,13 +56209,13 @@
         <v>413</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>374</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -56218,7 +56223,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>466</v>
@@ -56227,24 +56232,24 @@
         <v>292</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H6" s="64" t="s">
         <v>374</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="68" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B7" s="64">
         <v>6</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>1246</v>
@@ -56256,7 +56261,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -56264,13 +56269,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>406</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>368</v>
@@ -56279,7 +56284,7 @@
         <v>353</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -56287,19 +56292,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H9" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -56307,7 +56312,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>1006</v>
@@ -56316,13 +56321,13 @@
         <v>275</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>338</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -56330,19 +56335,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>382</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>353</v>
@@ -56353,16 +56358,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>521</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H12" s="64" t="s">
         <v>353</v>
@@ -56370,25 +56375,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="64" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B13" s="64">
         <v>12</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>435</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>278</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H13" s="64" t="s">
         <v>374</v>
@@ -56399,16 +56404,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>355</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>338</v>
@@ -56416,19 +56421,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="64" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B15" s="64">
         <v>14</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>374</v>
@@ -56439,16 +56444,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>1734</v>
+        <v>353</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>1735</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>554</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>374</v>
@@ -56459,16 +56467,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>1737</v>
+        <v>374</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>1738</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>381</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>353</v>
@@ -56479,7 +56490,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>580</v>
@@ -56493,13 +56504,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>338</v>
@@ -56510,13 +56521,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H20" s="64" t="s">
         <v>374</v>
@@ -56527,10 +56538,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="F21" s="64" t="s">
         <v>297</v>
@@ -56541,10 +56552,10 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="64" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -56559,7 +56570,7 @@
     </row>
     <row r="25" spans="7:7">
       <c r="G25" s="64" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="27" spans="6:6">
@@ -56569,7 +56580,7 @@
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="64" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1"/>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -5380,9 +5380,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -5442,121 +5442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5572,7 +5458,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5585,12 +5486,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5701,19 +5701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5725,19 +5743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5755,13 +5767,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5774,114 +5882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,17 +6005,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6033,9 +6022,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6059,7 +6059,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6075,15 +6084,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6110,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6122,133 +6122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11715,48 +11715,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8100060" y="38100"/>
-          <a:ext cx="1491615" cy="836295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -11775,7 +11733,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11817,7 +11775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11859,7 +11817,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11901,7 +11859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11943,7 +11901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11985,7 +11943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12027,7 +11985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12069,7 +12027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15408,8 +15366,8 @@
   <sheetPr/>
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15623,7 +15581,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="39">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L8" s="26">
         <v>12</v>
@@ -56072,8 +56030,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -5380,9 +5380,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -5441,23 +5441,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5473,97 +5532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5579,7 +5548,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5701,13 +5701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5719,7 +5713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5731,19 +5737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5767,7 +5761,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5779,109 +5881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,6 +6005,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6016,6 +6040,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6040,65 +6094,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6110,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6122,133 +6122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15366,7 +15366,7 @@
   <sheetPr/>
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -15987,7 +15987,7 @@
   <sheetPr/>
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -19125,7 +19125,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19746,8 +19746,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -24294,7 +24294,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -24916,7 +24916,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -56031,7 +56031,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="17"/>
+    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="4" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -5201,7 +5201,7 @@
     <t>界桥之战</t>
   </si>
   <si>
-    <t>针对远程、脆皮武将</t>
+    <t>针对脆皮武将</t>
   </si>
   <si>
     <t>徐州之围</t>
@@ -5380,9 +5380,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -5441,9 +5441,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5457,29 +5532,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5495,68 +5557,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5571,26 +5572,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5701,7 +5701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5713,7 +5725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5725,19 +5743,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5749,13 +5815,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5767,49 +5851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5821,13 +5869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5839,49 +5881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,6 +6005,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6024,37 +6054,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6076,26 +6096,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -6110,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6122,133 +6122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8564,48 +8564,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8071485" y="2135505"/>
-          <a:ext cx="1320165" cy="403860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8624,7 +8582,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8666,7 +8624,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8675,6 +8633,48 @@
         <a:xfrm>
           <a:off x="8077200" y="1005840"/>
           <a:ext cx="3276600" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8092440" y="1524000"/>
+          <a:ext cx="3238500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9142,6 +9142,48 @@
         <a:xfrm>
           <a:off x="7909560" y="4975860"/>
           <a:ext cx="4099560" cy="1607820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168140" y="3832860"/>
+          <a:ext cx="3825240" cy="1493520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9629,10 +9671,10 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9650,7 +9692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5306060" y="4212590"/>
-          <a:ext cx="866140" cy="384810"/>
+          <a:ext cx="1483360" cy="659130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9666,15 +9708,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9691,8 +9733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5287010" y="4578350"/>
-          <a:ext cx="864870" cy="133350"/>
+          <a:off x="5096510" y="5012690"/>
+          <a:ext cx="2001520" cy="308610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10244,6 +10286,48 @@
         <a:xfrm>
           <a:off x="8046720" y="2385060"/>
           <a:ext cx="4312920" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="3589020"/>
+          <a:ext cx="3787140" cy="2377440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12313,19 +12397,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12338,49 +12422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8061960" y="104775"/>
-          <a:ext cx="3674745" cy="655320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8109585" y="741045"/>
+          <a:off x="8101965" y="398145"/>
           <a:ext cx="3627120" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12415,7 +12457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12457,7 +12499,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12499,7 +12541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12541,7 +12583,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12583,7 +12625,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12625,7 +12667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12667,7 +12709,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12709,7 +12751,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12751,7 +12793,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12793,7 +12835,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12835,7 +12877,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12877,7 +12919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12919,7 +12961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12961,7 +13003,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12970,6 +13012,48 @@
         <a:xfrm>
           <a:off x="635" y="4831080"/>
           <a:ext cx="11652885" cy="520065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160655</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="130175"/>
+          <a:ext cx="3848735" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13159,14 +13243,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>534035</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13183,7 +13267,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="4349115"/>
+          <a:off x="635" y="4547235"/>
           <a:ext cx="11643360" cy="520065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13200,15 +13284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13225,8 +13309,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4937760"/>
+          <a:off x="635" y="5135880"/>
           <a:ext cx="11633835" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="4145280"/>
+          <a:ext cx="2133600" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15367,7 +15493,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15988,7 +16114,7 @@
   <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16634,7 +16760,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17256,7 +17382,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -18503,7 +18629,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19125,7 +19251,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19746,8 +19872,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -20369,7 +20495,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -23049,8 +23175,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -23671,8 +23797,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -56031,7 +56157,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="4" activeTab="20"/>
+    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="4" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -5380,9 +5380,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -5442,13 +5442,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5456,22 +5449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5485,15 +5463,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5506,6 +5482,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5532,6 +5530,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5540,24 +5546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5578,19 +5569,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5701,37 +5701,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5749,7 +5743,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5761,55 +5863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5821,67 +5881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,16 +6005,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6035,26 +6035,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6094,11 +6079,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6110,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6122,19 +6122,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6143,91 +6143,103 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6236,19 +6248,7 @@
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10597,6 +10597,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="3474720"/>
+          <a:ext cx="4023360" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12397,15 +12439,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>78105</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12422,7 +12464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8101965" y="398145"/>
+          <a:off x="8155305" y="702945"/>
           <a:ext cx="3627120" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12438,16 +12480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12464,7 +12506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="981075"/>
+          <a:off x="8191500" y="2108835"/>
           <a:ext cx="3667125" cy="451485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12481,15 +12523,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12506,7 +12548,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="1413510"/>
+          <a:off x="8153400" y="4827270"/>
           <a:ext cx="3676650" cy="241935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12523,15 +12565,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12548,7 +12590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8071485" y="1645920"/>
+          <a:off x="8079105" y="3429000"/>
           <a:ext cx="3655695" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12565,15 +12607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12590,7 +12632,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8052435" y="1847850"/>
+          <a:off x="8136255" y="635"/>
           <a:ext cx="3674745" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12607,15 +12649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12632,7 +12674,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8052435" y="2444115"/>
+          <a:off x="8136255" y="1544955"/>
           <a:ext cx="3648075" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12648,16 +12690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12674,7 +12716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="2636520"/>
+          <a:off x="8115300" y="2575560"/>
           <a:ext cx="3648075" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12691,15 +12733,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12716,7 +12758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8071485" y="3011805"/>
+          <a:off x="8155305" y="977265"/>
           <a:ext cx="3655695" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12732,16 +12774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12758,7 +12800,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="3251835"/>
+          <a:off x="8061960" y="2985135"/>
           <a:ext cx="3695700" cy="241935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12774,20 +12816,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12800,92 +12842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="3493770"/>
-          <a:ext cx="3657600" cy="240030"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8033385" y="3752850"/>
+          <a:off x="8208645" y="1261110"/>
           <a:ext cx="3648075" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>391160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="5465445"/>
-          <a:ext cx="11500485" cy="520065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12919,7 +12877,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12942,16 +12900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12961,14 +12919,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="4503420"/>
+          <a:off x="8153400" y="4419600"/>
           <a:ext cx="3695700" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12984,34 +12942,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>543560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297815</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPr id="19" name="图片 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="4831080"/>
-          <a:ext cx="11652885" cy="520065"/>
+          <a:off x="8176260" y="3749675"/>
+          <a:ext cx="3848735" cy="197485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2186940" y="3810000"/>
+          <a:ext cx="4091940" cy="998220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13027,19 +13027,61 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>160655</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="5303520"/>
+          <a:ext cx="4084320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13052,8 +13094,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="130175"/>
-          <a:ext cx="3848735" cy="197485"/>
+          <a:off x="8054340" y="5539740"/>
+          <a:ext cx="4023360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8061960" y="1790700"/>
+          <a:ext cx="4046220" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240280" y="4922520"/>
+          <a:ext cx="4076700" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5189220"/>
+          <a:ext cx="4069080" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16113,7 +16281,7 @@
   <sheetPr/>
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -16760,7 +16928,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17382,7 +17550,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -18007,7 +18175,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -18629,7 +18797,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19251,7 +19419,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19873,7 +20041,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -23175,7 +23343,7 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -23797,8 +23965,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -24420,7 +24588,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25041,8 +25209,8 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -56681,7 +56849,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="4" activeTab="22"/>
+    <workbookView windowWidth="21600" windowHeight="9960" tabRatio="871" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -5380,10 +5380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -5441,15 +5441,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5464,12 +5510,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5485,85 +5540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5579,7 +5558,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5701,7 +5701,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5719,25 +5821,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5749,139 +5869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,17 +6005,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6035,22 +6044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6079,17 +6083,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6097,8 +6097,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6110,10 +6110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6122,133 +6122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11833,6 +11833,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="2194560"/>
+          <a:ext cx="3230880" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15030,8 +15072,8 @@
   <sheetPr/>
   <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25209,7 +25251,7 @@
   <sheetPr/>
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/【英雄绘卷】关卡设计.xlsx
+++ b/策划文档/【英雄绘卷】关卡设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="关卡规划" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5566" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="1792">
   <si>
     <t>战斗</t>
   </si>
@@ -5284,202 +5284,199 @@
     <t>发挥</t>
   </si>
   <si>
+    <t>迷雾阵</t>
+  </si>
+  <si>
+    <t>刘备1</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>兵营、骑兵营</t>
+  </si>
+  <si>
+    <t>刘备2</t>
+  </si>
+  <si>
+    <t>吕布貂蝉</t>
+  </si>
+  <si>
+    <t>陷阵、骠骑、巾帼</t>
+  </si>
+  <si>
+    <t>骑兵营</t>
+  </si>
+  <si>
+    <t>曹操1</t>
+  </si>
+  <si>
+    <t>灼烧和中毒</t>
+  </si>
+  <si>
+    <t>界桥之战</t>
+  </si>
+  <si>
+    <t>曹操2</t>
+  </si>
+  <si>
+    <t>针对脆皮武将</t>
+  </si>
+  <si>
+    <t>抛石台</t>
+  </si>
+  <si>
+    <t>刘备3</t>
+  </si>
+  <si>
+    <t>针对老巢</t>
+  </si>
+  <si>
+    <t>曹操3</t>
+  </si>
+  <si>
+    <t>针对中排</t>
+  </si>
+  <si>
+    <t>河北四庭柱</t>
+  </si>
+  <si>
+    <t>曹操4</t>
+  </si>
+  <si>
+    <t>突破前排</t>
+  </si>
+  <si>
+    <t>南华、北斗</t>
+  </si>
+  <si>
+    <t>滚石、滚木</t>
+  </si>
+  <si>
+    <t>曹操5</t>
+  </si>
+  <si>
+    <t>针对脆皮武将和塔</t>
+  </si>
+  <si>
+    <t>弓兵营、石墙</t>
+  </si>
+  <si>
+    <t>孙权1</t>
+  </si>
+  <si>
+    <t>针对多单位</t>
+  </si>
+  <si>
+    <t>桃园结义</t>
+  </si>
+  <si>
+    <t>枪兵、飞甲</t>
+  </si>
+  <si>
+    <t>长持营</t>
+  </si>
+  <si>
+    <t>曹操6</t>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+  </si>
+  <si>
+    <t>火船、统帅</t>
+  </si>
+  <si>
+    <t>战船营、巨浪</t>
+  </si>
+  <si>
+    <t>镇守荆州</t>
+  </si>
+  <si>
+    <t>水师都督</t>
+  </si>
+  <si>
+    <t>东吴旗、迷雾阵</t>
+  </si>
+  <si>
+    <t>威震逍遥津</t>
+  </si>
+  <si>
+    <t>骠骑、先锋、白马</t>
+  </si>
+  <si>
+    <t>骑兵营、轩辕台</t>
+  </si>
+  <si>
+    <t>入主西川</t>
+  </si>
+  <si>
+    <t>严颜、张任（刺甲）</t>
+  </si>
+  <si>
+    <t>抛石台、箭塔</t>
+  </si>
+  <si>
+    <t>曹操、五谋</t>
+  </si>
+  <si>
+    <t>魏五奇谋</t>
+  </si>
+  <si>
+    <t>铸铁炉、四方鼎、轩辕台</t>
+  </si>
+  <si>
+    <t>刘备、五虎</t>
+  </si>
+  <si>
+    <t>五虎上将</t>
+  </si>
+  <si>
+    <t>蜀国旗</t>
+  </si>
+  <si>
+    <t>水淹七军</t>
+  </si>
+  <si>
+    <t>夷陵之战</t>
+  </si>
+  <si>
+    <t>拒马+器械</t>
+  </si>
+  <si>
+    <t>吴国旗</t>
+  </si>
+  <si>
+    <t>南蛮入侵</t>
+  </si>
+  <si>
+    <t>藤甲、战象、蛮族</t>
+  </si>
+  <si>
+    <t>毒潭</t>
+  </si>
+  <si>
+    <t>挥师北伐</t>
+  </si>
+  <si>
+    <t>卧龙凤雏</t>
+  </si>
+  <si>
+    <t>乱世红颜</t>
+  </si>
+  <si>
+    <t>白马义从</t>
+  </si>
+  <si>
+    <t>拒马、地雷</t>
+  </si>
+  <si>
+    <t>妖师</t>
+  </si>
+  <si>
     <t>提升</t>
-  </si>
-  <si>
-    <t>迷雾阵</t>
-  </si>
-  <si>
-    <t>刘备1</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>远程</t>
-  </si>
-  <si>
-    <t>兵营、骑兵营</t>
-  </si>
-  <si>
-    <t>刘备2</t>
-  </si>
-  <si>
-    <t>降低</t>
-  </si>
-  <si>
-    <t>吕布貂蝉</t>
-  </si>
-  <si>
-    <t>陷阵、骠骑、巾帼</t>
-  </si>
-  <si>
-    <t>骑兵营</t>
-  </si>
-  <si>
-    <t>曹操1</t>
-  </si>
-  <si>
-    <t>灼烧和中毒</t>
-  </si>
-  <si>
-    <t>界桥之战</t>
-  </si>
-  <si>
-    <t>曹操2</t>
-  </si>
-  <si>
-    <t>针对脆皮武将</t>
-  </si>
-  <si>
-    <t>抛石台</t>
-  </si>
-  <si>
-    <t>刘备3</t>
-  </si>
-  <si>
-    <t>针对老巢</t>
-  </si>
-  <si>
-    <t>曹操3</t>
-  </si>
-  <si>
-    <t>针对中排</t>
-  </si>
-  <si>
-    <t>河北四庭柱</t>
-  </si>
-  <si>
-    <t>曹操4</t>
-  </si>
-  <si>
-    <t>突破前排</t>
-  </si>
-  <si>
-    <t>南华、北斗</t>
-  </si>
-  <si>
-    <t>滚石、滚木</t>
-  </si>
-  <si>
-    <t>曹操5</t>
-  </si>
-  <si>
-    <t>针对脆皮武将和塔</t>
-  </si>
-  <si>
-    <t>弓兵营、石墙</t>
-  </si>
-  <si>
-    <t>孙权1</t>
-  </si>
-  <si>
-    <t>针对多单位</t>
-  </si>
-  <si>
-    <t>桃园结义</t>
-  </si>
-  <si>
-    <t>枪兵、飞甲</t>
-  </si>
-  <si>
-    <t>长持营</t>
-  </si>
-  <si>
-    <t>曹操6</t>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-  </si>
-  <si>
-    <t>火船、统帅</t>
-  </si>
-  <si>
-    <t>战船营、巨浪</t>
-  </si>
-  <si>
-    <t>镇守荆州</t>
-  </si>
-  <si>
-    <t>水师都督</t>
-  </si>
-  <si>
-    <t>东吴旗、迷雾阵</t>
-  </si>
-  <si>
-    <t>威震逍遥津</t>
-  </si>
-  <si>
-    <t>骠骑、先锋、白马</t>
-  </si>
-  <si>
-    <t>骑兵营、轩辕台</t>
-  </si>
-  <si>
-    <t>入主西川</t>
-  </si>
-  <si>
-    <t>严颜、张任（刺甲）</t>
-  </si>
-  <si>
-    <t>抛石台、箭塔</t>
-  </si>
-  <si>
-    <t>曹操、五谋</t>
-  </si>
-  <si>
-    <t>魏五奇谋</t>
-  </si>
-  <si>
-    <t>铸铁炉、四方鼎、轩辕台</t>
-  </si>
-  <si>
-    <t>刘备、五虎</t>
-  </si>
-  <si>
-    <t>五虎上将</t>
-  </si>
-  <si>
-    <t>蜀国旗</t>
-  </si>
-  <si>
-    <t>水淹七军</t>
-  </si>
-  <si>
-    <t>夷陵之战</t>
-  </si>
-  <si>
-    <t>拒马+器械</t>
-  </si>
-  <si>
-    <t>吴国旗</t>
-  </si>
-  <si>
-    <t>南蛮入侵</t>
-  </si>
-  <si>
-    <t>藤甲、战象、蛮族</t>
-  </si>
-  <si>
-    <t>毒潭</t>
-  </si>
-  <si>
-    <t>挥师北伐</t>
-  </si>
-  <si>
-    <t>卧龙凤雏</t>
-  </si>
-  <si>
-    <t>乱世红颜</t>
-  </si>
-  <si>
-    <t>白马义从</t>
-  </si>
-  <si>
-    <t>拒马、地雷</t>
-  </si>
-  <si>
-    <t>妖师</t>
   </si>
   <si>
     <t>营寨</t>
@@ -5502,10 +5499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -5564,15 +5561,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5587,21 +5599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5615,16 +5613,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5639,7 +5636,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5654,10 +5682,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5669,50 +5697,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5823,7 +5820,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5841,7 +5868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5853,19 +5916,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5877,43 +5952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5925,73 +5964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6004,6 +5977,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6142,6 +6139,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6153,35 +6161,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6205,7 +6184,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6225,17 +6219,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6247,10 +6244,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6259,19 +6256,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6280,112 +6277,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15927,7 +15924,7 @@
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1722</v>
+        <v>1786</v>
       </c>
     </row>
   </sheetData>
@@ -16026,7 +16023,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>VLOOKUP(B4,武将!$A:$H,7,FALSE)</f>
@@ -16100,7 +16097,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,武将!$A:$B,2,FALSE)</f>
@@ -16145,7 +16142,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B8" s="23">
         <v>477</v>
@@ -17180,7 +17177,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>
@@ -17286,7 +17283,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -17328,7 +17325,7 @@
         <v>8</v>
       </c>
       <c r="Q5" s="58" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -17366,7 +17363,7 @@
         <v>9</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -57559,7 +57556,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -57609,10 +57606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="63" t="s">
-        <v>1722</v>
-      </c>
+    <row r="2" spans="3:11">
       <c r="C2" s="63">
         <v>1</v>
       </c>
@@ -57626,16 +57620,16 @@
         <v>506</v>
       </c>
       <c r="H2" s="63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I2" s="63" t="s">
         <v>1723</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="J2" s="63" t="s">
         <v>1724</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="K2" s="63" t="s">
         <v>1725</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="3" spans="3:10">
@@ -57652,19 +57646,16 @@
         <v>382</v>
       </c>
       <c r="H3" s="63" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I3" s="63" t="s">
         <v>1727</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>1728</v>
       </c>
       <c r="J3" s="63" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="63" t="s">
-        <v>1729</v>
-      </c>
+    <row r="4" spans="3:10">
       <c r="C4" s="63">
         <v>3</v>
       </c>
@@ -57675,19 +57666,19 @@
         <v>399</v>
       </c>
       <c r="F4" s="63" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>1730</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="I4" s="63" t="s">
         <v>1731</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="J4" s="63" t="s">
         <v>1732</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>1733</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -57695,7 +57686,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>413</v>
@@ -57704,19 +57695,16 @@
         <v>414</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="63" t="s">
-        <v>1729</v>
-      </c>
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6" s="63">
         <v>5</v>
       </c>
@@ -57730,13 +57718,13 @@
         <v>292</v>
       </c>
       <c r="H6" s="63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>1738</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>1739</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -57753,10 +57741,10 @@
         <v>310</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="3:10">
@@ -57770,16 +57758,16 @@
         <v>407</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>369</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="9" spans="3:10">
@@ -57790,16 +57778,16 @@
         <v>1707</v>
       </c>
       <c r="E9" s="63" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>1746</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="J9" s="63" t="s">
         <v>1747</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>1748</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -57816,13 +57804,13 @@
         <v>275</v>
       </c>
       <c r="H10" s="66" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>1750</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>1751</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="11" spans="3:9">
@@ -57836,16 +57824,16 @@
         <v>383</v>
       </c>
       <c r="F11" s="63" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H11" s="63" t="s">
         <v>1753</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="I11" s="63" t="s">
         <v>1754</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>1755</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -57853,16 +57841,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>522</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>354</v>
@@ -57873,19 +57861,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>436</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>278</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>375</v>
@@ -57896,16 +57884,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>356</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="I14" s="63" t="s">
         <v>339</v>
@@ -57916,25 +57904,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="65" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H15" s="63" t="s">
         <v>1766</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>1768</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="16" ht="16.2" spans="1:9">
-      <c r="A16" s="63" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>1722</v>
-      </c>
+    <row r="16" ht="16.2" spans="3:9">
       <c r="C16" s="67">
         <v>15</v>
       </c>
@@ -57942,25 +57924,22 @@
         <v>354</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="G16" s="63" t="s">
         <v>555</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="I16" s="63" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" ht="16.2" spans="1:9">
-      <c r="A17" s="63" t="s">
-        <v>1722</v>
-      </c>
+    <row r="17" ht="16.2" spans="3:9">
       <c r="C17" s="67">
         <v>16</v>
       </c>
@@ -57968,16 +57947,16 @@
         <v>375</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G17" s="63" t="s">
         <v>382</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="I17" s="63" t="s">
         <v>354</v>
@@ -57988,7 +57967,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="G18" s="63" t="s">
         <v>581</v>
@@ -58002,13 +57981,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="65" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H19" s="63" t="s">
         <v>1776</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>1777</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>1778</v>
       </c>
       <c r="I19" s="63" t="s">
         <v>339</v>
@@ -58019,13 +57998,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="65" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H20" s="63" t="s">
         <v>1779</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>1780</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>1781</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>375</v>
@@ -58036,10 +58015,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="G21" s="63" t="s">
         <v>297</v>
@@ -58050,10 +58029,10 @@
     </row>
     <row r="22" spans="4:7">
       <c r="D22" s="63" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="23" spans="7:7">
@@ -58068,7 +58047,7 @@
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="63" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="27" spans="7:7">
@@ -58078,7 +58057,7 @@
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="63" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1"/>
